--- a/teaching/traditional_assets/database/data/vietnam/vietnam_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/vietnam/vietnam_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.249</v>
+        <v>0.213</v>
       </c>
       <c r="E2">
-        <v>0.26</v>
+        <v>0.285</v>
       </c>
       <c r="F2">
-        <v>0.122</v>
+        <v>0.08</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,91 +606,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.0006475646849412837</v>
+        <v>-0.001482297574954473</v>
       </c>
       <c r="J2">
-        <v>-0.0005193340034336174</v>
+        <v>-0.001181235287589987</v>
       </c>
       <c r="K2">
-        <v>3171.1</v>
+        <v>3738.4</v>
       </c>
       <c r="L2">
-        <v>0.374967482558827</v>
+        <v>0.3862701742059474</v>
       </c>
       <c r="M2">
-        <v>232.358</v>
+        <v>520.9838</v>
       </c>
       <c r="N2">
-        <v>0.005954080717488789</v>
+        <v>0.01056132448397913</v>
       </c>
       <c r="O2">
-        <v>0.07327362744788875</v>
+        <v>0.1393601005777873</v>
       </c>
       <c r="P2">
-        <v>187.412</v>
+        <v>416.3638</v>
       </c>
       <c r="Q2">
-        <v>0.004802357463164638</v>
+        <v>0.008440479713923137</v>
       </c>
       <c r="R2">
-        <v>0.05909999684652014</v>
+        <v>0.1113748662529424</v>
       </c>
       <c r="S2">
-        <v>44.94599999999999</v>
+        <v>104.62</v>
       </c>
       <c r="T2">
-        <v>0.1934342695323595</v>
+        <v>0.2008123861049038</v>
       </c>
       <c r="U2">
-        <v>30393.7</v>
+        <v>27354.1</v>
       </c>
       <c r="V2">
-        <v>0.7788263933376042</v>
+        <v>0.5545192116668761</v>
       </c>
       <c r="W2">
-        <v>0.2012595030671895</v>
+        <v>0.2031640614128985</v>
       </c>
       <c r="X2">
-        <v>0.07781786734223645</v>
+        <v>0.06612946529580252</v>
       </c>
       <c r="Y2">
-        <v>0.1234416357249531</v>
+        <v>0.137034596117096</v>
       </c>
       <c r="Z2">
-        <v>0.7019769411376064</v>
+        <v>1.004482625204251</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.06372686703903242</v>
+        <v>0.05850190072296128</v>
       </c>
       <c r="AC2">
-        <v>-0.06664161180264366</v>
+        <v>-0.06080444945263243</v>
       </c>
       <c r="AD2">
-        <v>19358.1</v>
+        <v>24723</v>
       </c>
       <c r="AE2">
-        <v>173.0822727027422</v>
+        <v>190.9798619496219</v>
       </c>
       <c r="AF2">
-        <v>19531.18227270274</v>
+        <v>24913.97986194962</v>
       </c>
       <c r="AG2">
-        <v>-10862.51772729726</v>
+        <v>-2440.120138050381</v>
       </c>
       <c r="AH2">
-        <v>0.3335460324538206</v>
+        <v>0.3355717359349134</v>
       </c>
       <c r="AI2">
-        <v>0.4956702194620813</v>
+        <v>0.5042735963064324</v>
       </c>
       <c r="AJ2">
-        <v>-0.3857088172169415</v>
+        <v>-0.05204004295298475</v>
       </c>
       <c r="AK2">
-        <v>-1.205622603994222</v>
+        <v>-0.1106551164735752</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>664.3136582017844</v>
+        <v>1036.603773584906</v>
       </c>
       <c r="AP2">
-        <v>-372.7699975050534</v>
+        <v>-102.311116899387</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joint Stock Commercial Bank for Foreign Trade of Vietnam (HOSE:VCB)</t>
+          <t>Vietnam Export Import Commercial Joint Stock Bank (HOSE:EIB)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,10 +722,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.249</v>
+        <v>0.09130000000000001</v>
       </c>
       <c r="E3">
-        <v>0.333</v>
+        <v>0.452</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -740,85 +740,82 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>832.7</v>
+        <v>36.9</v>
       </c>
       <c r="L3">
-        <v>0.5029596520898768</v>
+        <v>0.236084452975048</v>
       </c>
       <c r="M3">
-        <v>123.8</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.008606007521567156</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.1486729914735199</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>123.8</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.008606007521567156</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.1486729914735199</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>8913.6</v>
+        <v>1024.2</v>
       </c>
       <c r="V3">
-        <v>0.6196325415528352</v>
+        <v>1.006386950967869</v>
       </c>
       <c r="W3">
-        <v>0.3159792054035593</v>
+        <v>0.05428865676033544</v>
       </c>
       <c r="X3">
-        <v>0.05657094270212325</v>
+        <v>0.04899101343772221</v>
       </c>
       <c r="Y3">
-        <v>0.2594082627014361</v>
+        <v>0.005297643322613232</v>
       </c>
       <c r="Z3">
-        <v>-0.6883705459232463</v>
+        <v>-0.3953959018466988</v>
       </c>
       <c r="AA3">
         <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.05704255641048981</v>
+        <v>0.04917468058397012</v>
       </c>
       <c r="AC3">
-        <v>-0.05704255641048981</v>
+        <v>-0.04917468058397012</v>
       </c>
       <c r="AD3">
-        <v>1131.8</v>
+        <v>11.6</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1131.8</v>
+        <v>11.6</v>
       </c>
       <c r="AG3">
-        <v>-7781.8</v>
+        <v>-1012.6</v>
       </c>
       <c r="AH3">
-        <v>0.07293888677652396</v>
+        <v>0.01126979500631497</v>
       </c>
       <c r="AI3">
-        <v>0.2442804109470776</v>
+        <v>0.01594720923838328</v>
       </c>
       <c r="AJ3">
-        <v>-1.178435678049519</v>
+        <v>-198.5490196078423</v>
       </c>
       <c r="AK3">
-        <v>1.818007662835249</v>
+        <v>3.411725067385444</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -835,7 +832,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Asia Commercial Joint Stock Bank (HNX:ACB)</t>
+          <t>Joint Stock Commercial Bank for Foreign Trade of Vietnam (HOSE:VCB)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -844,13 +841,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.292</v>
+        <v>0.208</v>
       </c>
       <c r="E4">
-        <v>0.605</v>
-      </c>
-      <c r="F4">
-        <v>0.08</v>
+        <v>0.284</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -865,82 +859,85 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>250.1</v>
+        <v>740.7</v>
       </c>
       <c r="L4">
-        <v>0.3998401278976819</v>
+        <v>0.4609209707529558</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>128</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.008198138766308212</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0.1728095045227487</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>128</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.008198138766308212</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0.1728095045227487</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>1057</v>
+        <v>7120.7</v>
       </c>
       <c r="V4">
-        <v>0.6508620689655172</v>
+        <v>0.4560663024472725</v>
       </c>
       <c r="W4">
-        <v>0.2987338748208313</v>
+        <v>0.2117495711835335</v>
       </c>
       <c r="X4">
-        <v>0.06899276966185336</v>
+        <v>0.05085626936465241</v>
       </c>
       <c r="Y4">
-        <v>0.2297411051589779</v>
+        <v>0.1608933018188811</v>
       </c>
       <c r="Z4">
-        <v>1.334257679180887</v>
+        <v>-0.3751342266212241</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>0.06134158311130763</v>
+        <v>0.05146764859384684</v>
       </c>
       <c r="AC4">
-        <v>-0.06134158311130763</v>
+        <v>-0.05146764859384684</v>
       </c>
       <c r="AD4">
-        <v>845</v>
+        <v>1103.5</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>845</v>
+        <v>1103.5</v>
       </c>
       <c r="AG4">
-        <v>-212</v>
+        <v>-6017.2</v>
       </c>
       <c r="AH4">
-        <v>0.3422438234102876</v>
+        <v>0.0660114375957121</v>
       </c>
       <c r="AI4">
-        <v>0.4364218572461522</v>
+        <v>0.2147096021013717</v>
       </c>
       <c r="AJ4">
-        <v>-0.1501416430594901</v>
+        <v>-0.6270464042684007</v>
       </c>
       <c r="AK4">
-        <v>-0.2411282984531392</v>
+        <v>3.037149202503533</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -957,7 +954,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Joint Stock Commercial Bank for Investment and Development of Vietnam (HOSE:BID)</t>
+          <t>Asia Commercial Joint Stock Bank (HOSE:ACB)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -966,10 +963,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.12</v>
+        <v>0.256</v>
       </c>
       <c r="E5">
-        <v>0.102</v>
+        <v>0.473</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -984,85 +981,82 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>310.2</v>
+        <v>288.8</v>
       </c>
       <c r="L5">
-        <v>0.2902048835251193</v>
+        <v>0.3837873754152824</v>
       </c>
       <c r="M5">
-        <v>6.48</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.0008118774666416087</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.02088974854932302</v>
+        <v>-0</v>
       </c>
       <c r="P5">
-        <v>6.48</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.0008118774666416087</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.02088974854932302</v>
+        <v>-0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>5189.5</v>
+        <v>1070.2</v>
       </c>
       <c r="V5">
-        <v>0.6501910668420723</v>
+        <v>0.4097557240217474</v>
       </c>
       <c r="W5">
-        <v>0.1430218082899165</v>
+        <v>0.2646627565982405</v>
       </c>
       <c r="X5">
-        <v>0.06740052266482398</v>
+        <v>0.06116184712585376</v>
       </c>
       <c r="Y5">
-        <v>0.07562128562509256</v>
+        <v>0.2035009094723867</v>
       </c>
       <c r="Z5">
-        <v>0.3542336371168187</v>
+        <v>0.8558917197452229</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.06234314936967245</v>
+        <v>0.05536534053214469</v>
       </c>
       <c r="AC5">
-        <v>-0.06234314936967245</v>
+        <v>-0.05536534053214469</v>
       </c>
       <c r="AD5">
-        <v>3701.1</v>
+        <v>1040</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>3701.1</v>
+        <v>1040</v>
       </c>
       <c r="AG5">
-        <v>-1488.4</v>
+        <v>-30.20000000000005</v>
       </c>
       <c r="AH5">
-        <v>0.3168044784551384</v>
+        <v>0.2847910619420559</v>
       </c>
       <c r="AI5">
-        <v>0.5916553432978978</v>
+        <v>0.422798601512318</v>
       </c>
       <c r="AJ5">
-        <v>-0.2292279496696493</v>
+        <v>-0.01169817167647972</v>
       </c>
       <c r="AK5">
-        <v>-1.39624765478424</v>
+        <v>-0.02173287276914223</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1079,7 +1073,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vietnam Technological and Commercial Joint Stock Bank (HOSE:TCB)</t>
+          <t>Vietnam Joint Stock Commercial Bank For Industry And Trade (HOSE:CTG)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1088,13 +1082,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.324</v>
+        <v>0.105</v>
       </c>
       <c r="E6">
-        <v>0.5760000000000001</v>
-      </c>
-      <c r="F6">
-        <v>0.12</v>
+        <v>0.132</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1109,85 +1100,85 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>376.9</v>
+        <v>473.5</v>
       </c>
       <c r="L6">
-        <v>0.4965090238440258</v>
+        <v>0.3764509460963588</v>
       </c>
       <c r="M6">
-        <v>0.346</v>
+        <v>107.2148</v>
       </c>
       <c r="N6">
-        <v>9.761877891885791e-05</v>
+        <v>0.01938188983495128</v>
       </c>
       <c r="O6">
-        <v>0.0009180153886972672</v>
+        <v>0.2264304118268215</v>
       </c>
       <c r="P6">
-        <v>-0</v>
+        <v>81.9148</v>
       </c>
       <c r="Q6">
-        <v>-0</v>
+        <v>0.01480825062819748</v>
       </c>
       <c r="R6">
-        <v>-0</v>
+        <v>0.1729985216473073</v>
       </c>
       <c r="S6">
-        <v>0.346</v>
+        <v>25.3</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0.2359748840645135</v>
       </c>
       <c r="U6">
-        <v>1618.8</v>
+        <v>5607.1</v>
       </c>
       <c r="V6">
-        <v>0.456720460444645</v>
+        <v>1.013630529493646</v>
       </c>
       <c r="W6">
-        <v>0.1824563102096142</v>
+        <v>0.1481029683150355</v>
       </c>
       <c r="X6">
-        <v>0.06268390263378636</v>
+        <v>0.06566592667859286</v>
       </c>
       <c r="Y6">
-        <v>0.1197724075758278</v>
+        <v>0.08243704163644264</v>
       </c>
       <c r="Z6">
-        <v>0.4734905189620759</v>
+        <v>1.629274611398964</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.06276451005652781</v>
+        <v>0.05693564294784113</v>
       </c>
       <c r="AC6">
-        <v>-0.06276451005652781</v>
+        <v>-0.05693564294784113</v>
       </c>
       <c r="AD6">
-        <v>1049.2</v>
+        <v>2994.5</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>1049.2</v>
+        <v>2994.5</v>
       </c>
       <c r="AG6">
-        <v>-569.5999999999999</v>
+        <v>-2612.6</v>
       </c>
       <c r="AH6">
-        <v>0.2284047370254267</v>
+        <v>0.3512115596631559</v>
       </c>
       <c r="AI6">
-        <v>0.3030530602813321</v>
+        <v>0.4545178574139004</v>
       </c>
       <c r="AJ6">
-        <v>-0.1914750571466989</v>
+        <v>-0.8950018841423729</v>
       </c>
       <c r="AK6">
-        <v>-0.3090110128573753</v>
+        <v>-2.662657969832859</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1204,7 +1195,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Saigon Thuong Tin Commercial Joint Stock Bank (HOSE:STB)</t>
+          <t>Joint Stock Commercial Bank for Investment and Development of Vietnam (HOSE:BID)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1213,10 +1204,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.113</v>
+        <v>0.101</v>
       </c>
       <c r="E7">
-        <v>0.0258</v>
+        <v>0.0717</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1225,34 +1216,34 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-0.004640632692590506</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>-0.003771104774630574</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>119.7</v>
+        <v>361.1</v>
       </c>
       <c r="L7">
-        <v>0.2231543624161074</v>
+        <v>0.2920339668418925</v>
       </c>
       <c r="M7">
-        <v>0.005</v>
+        <v>206.4</v>
       </c>
       <c r="N7">
-        <v>6.415191172696947e-06</v>
+        <v>0.02491489824002318</v>
       </c>
       <c r="O7">
-        <v>4.177109440267335e-05</v>
+        <v>0.5715868180559401</v>
       </c>
       <c r="P7">
-        <v>0.005</v>
+        <v>206.4</v>
       </c>
       <c r="Q7">
-        <v>6.415191172696947e-06</v>
+        <v>0.02491489824002318</v>
       </c>
       <c r="R7">
-        <v>4.177109440267335e-05</v>
+        <v>0.5715868180559401</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1261,67 +1252,61 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1209.1</v>
+        <v>4621.8</v>
       </c>
       <c r="V7">
-        <v>1.551321529381575</v>
+        <v>0.5579054102991237</v>
       </c>
       <c r="W7">
-        <v>0.1173529411764706</v>
+        <v>0.1491963806139735</v>
       </c>
       <c r="X7">
-        <v>0.07619249141909003</v>
+        <v>0.06659300391301218</v>
       </c>
       <c r="Y7">
-        <v>0.04116044975738056</v>
+        <v>0.0826033767009613</v>
       </c>
       <c r="Z7">
-        <v>0.4838770014154549</v>
+        <v>1.326859105054191</v>
       </c>
       <c r="AA7">
-        <v>-0.001824750870371747</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.06327573970973865</v>
+        <v>0.05722334307230693</v>
       </c>
       <c r="AC7">
-        <v>-0.0651004905801104</v>
+        <v>-0.05722334307230693</v>
       </c>
       <c r="AD7">
-        <v>527.1</v>
+        <v>4728.6</v>
       </c>
       <c r="AE7">
-        <v>77.94617688152773</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>605.0461768815278</v>
+        <v>4728.6</v>
       </c>
       <c r="AG7">
-        <v>-604.0538231184721</v>
+        <v>106.8000000000002</v>
       </c>
       <c r="AH7">
-        <v>0.437031202068395</v>
+        <v>0.3633806713389893</v>
       </c>
       <c r="AI7">
-        <v>0.3490423786736815</v>
+        <v>0.5737756637382906</v>
       </c>
       <c r="AJ7">
-        <v>-3.44492154811336</v>
+        <v>0.01272792277440117</v>
       </c>
       <c r="AK7">
-        <v>-1.152013402121083</v>
+        <v>0.02950765320218826</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>40.23664122137405</v>
-      </c>
-      <c r="AP7">
-        <v>-46.1109788640055</v>
       </c>
     </row>
     <row r="8">
@@ -1332,7 +1317,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vietnam Joint Stock Commercial Bank For Industry And Trade (HOSE:CTG)</t>
+          <t>Ho Chi Minh City Development Joint Stock Commercial Bank (HOSE:HDB)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1340,12 +1325,6 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D8">
-        <v>0.0597</v>
-      </c>
-      <c r="E8">
-        <v>0.0512</v>
-      </c>
       <c r="G8">
         <v>0</v>
       </c>
@@ -1359,85 +1338,85 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>262.9</v>
+        <v>186</v>
       </c>
       <c r="L8">
-        <v>0.2808760683760684</v>
+        <v>0.3711093375897845</v>
       </c>
       <c r="M8">
-        <v>1.12</v>
+        <v>21.7</v>
       </c>
       <c r="N8">
-        <v>0.0003347080270157194</v>
+        <v>0.01333251413123618</v>
       </c>
       <c r="O8">
-        <v>0.004260174971472044</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="P8">
-        <v>1.12</v>
+        <v>-0</v>
       </c>
       <c r="Q8">
-        <v>0.0003347080270157194</v>
+        <v>-0</v>
       </c>
       <c r="R8">
-        <v>0.004260174971472044</v>
+        <v>-0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>21.7</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>5517.6</v>
+        <v>1504.8</v>
       </c>
       <c r="V8">
-        <v>1.648915187376726</v>
+        <v>0.9245514868518063</v>
       </c>
       <c r="W8">
-        <v>0.08806190125276343</v>
+        <v>0.2386144964720975</v>
       </c>
       <c r="X8">
-        <v>0.08035197483571663</v>
+        <v>0.07670922275270135</v>
       </c>
       <c r="Y8">
-        <v>0.007709926417046806</v>
+        <v>0.1619052737193962</v>
       </c>
       <c r="Z8">
-        <v>0.4278383831365856</v>
+        <v>0.3981285100366196</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.06646405893325116</v>
+        <v>0.05978045837361563</v>
       </c>
       <c r="AC8">
-        <v>-0.06646405893325116</v>
+        <v>-0.05978045837361563</v>
       </c>
       <c r="AD8">
-        <v>3092.5</v>
+        <v>1452.3</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>3092.5</v>
+        <v>1452.3</v>
       </c>
       <c r="AG8">
-        <v>-2425.1</v>
+        <v>-52.5</v>
       </c>
       <c r="AH8">
-        <v>0.480298818084396</v>
+        <v>0.4715412838079159</v>
       </c>
       <c r="AI8">
-        <v>0.4898001203712503</v>
+        <v>0.5850151057401812</v>
       </c>
       <c r="AJ8">
-        <v>-2.632830311583978</v>
+        <v>-0.03333121706558314</v>
       </c>
       <c r="AK8">
-        <v>-3.045842753077117</v>
+        <v>-0.05369745320650506</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1454,7 +1433,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Military Commercial Joint Stock Bank (HOSE:MBB)</t>
+          <t>Vietnam Technological and Commercial Joint Stock Bank (HOSE:TCB)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1463,13 +1442,13 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.253</v>
+        <v>0.342</v>
       </c>
       <c r="E9">
-        <v>0.26</v>
+        <v>0.524</v>
       </c>
       <c r="F9">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1478,103 +1457,94 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-0.003469734384081857</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>-0.002788702151374971</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>320.6</v>
+        <v>491.7</v>
       </c>
       <c r="L9">
-        <v>0.3871513102282333</v>
+        <v>0.4882335418528448</v>
       </c>
       <c r="M9">
-        <v>100.6</v>
+        <v>-0</v>
       </c>
       <c r="N9">
-        <v>0.04836305946829479</v>
+        <v>-0</v>
       </c>
       <c r="O9">
-        <v>0.3137866500311915</v>
+        <v>-0</v>
       </c>
       <c r="P9">
-        <v>56</v>
+        <v>-0</v>
       </c>
       <c r="Q9">
-        <v>0.02692178260660545</v>
+        <v>-0</v>
       </c>
       <c r="R9">
-        <v>0.1746724890829694</v>
+        <v>-0</v>
       </c>
       <c r="S9">
-        <v>44.59999999999999</v>
-      </c>
-      <c r="T9">
-        <v>0.4433399602385685</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>1766.7</v>
+        <v>1153.5</v>
       </c>
       <c r="V9">
-        <v>0.8493341666266045</v>
+        <v>0.242975102161183</v>
       </c>
       <c r="W9">
-        <v>0.2377280142369865</v>
+        <v>0.1945785516422635</v>
       </c>
       <c r="X9">
-        <v>0.08045100880686991</v>
+        <v>0.06258700121479537</v>
       </c>
       <c r="Y9">
-        <v>0.1572770054301166</v>
+        <v>0.1319915504274682</v>
       </c>
       <c r="Z9">
-        <v>0.9470965920142218</v>
+        <v>0.4706074766355141</v>
       </c>
       <c r="AA9">
-        <v>-0.002641170303709964</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.06417799436832619</v>
+        <v>0.06182844053164922</v>
       </c>
       <c r="AC9">
-        <v>-0.06681916467203615</v>
+        <v>-0.06182844053164922</v>
       </c>
       <c r="AD9">
-        <v>1893.9</v>
+        <v>2105.4</v>
       </c>
       <c r="AE9">
-        <v>35.81643521729093</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>1929.716435217291</v>
+        <v>2105.4</v>
       </c>
       <c r="AG9">
-        <v>163.016435217291</v>
+        <v>951.9000000000001</v>
       </c>
       <c r="AH9">
-        <v>0.4812480736696667</v>
+        <v>0.3072320803175345</v>
       </c>
       <c r="AI9">
-        <v>0.5434571092096465</v>
+        <v>0.4087520385182885</v>
       </c>
       <c r="AJ9">
-        <v>0.0726740853296363</v>
+        <v>0.1670205112908603</v>
       </c>
       <c r="AK9">
-        <v>0.09137096211853288</v>
+        <v>0.2381357416255973</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>441.4685314685315</v>
-      </c>
-      <c r="AP9">
-        <v>37.99916904831959</v>
       </c>
     </row>
     <row r="10">
@@ -1585,7 +1555,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tien Phong Commercial Joint Stock Bank (HOSE:TPB)</t>
+          <t>Vietnam Prosperity Joint Stock Commercial Bank (HOSE:VPB)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1594,10 +1564,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.446</v>
+        <v>0.268</v>
       </c>
       <c r="E10">
-        <v>0.365</v>
+        <v>0.369</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1612,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>77.8</v>
+        <v>432.3</v>
       </c>
       <c r="L10">
-        <v>0.352994555353902</v>
+        <v>0.4084853066238307</v>
       </c>
       <c r="M10">
-        <v>-0</v>
+        <v>47.9</v>
       </c>
       <c r="N10">
-        <v>-0</v>
+        <v>0.01396297915755721</v>
       </c>
       <c r="O10">
-        <v>-0</v>
+        <v>0.1108026833217673</v>
       </c>
       <c r="P10">
         <v>-0</v>
@@ -1636,58 +1606,61 @@
         <v>-0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>47.9</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>971.9</v>
+        <v>949.5</v>
       </c>
       <c r="V10">
-        <v>1.298984228815824</v>
+        <v>0.2767818102317446</v>
       </c>
       <c r="W10">
-        <v>0.3118236472945892</v>
+        <v>0.2527478952291862</v>
       </c>
       <c r="X10">
-        <v>0.07944324326538287</v>
+        <v>0.0895815778974786</v>
       </c>
       <c r="Y10">
-        <v>0.2323804040292063</v>
+        <v>0.1631663173317076</v>
       </c>
       <c r="Z10">
-        <v>1.815485996705106</v>
+        <v>0.2978190516392289</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.06767348280879873</v>
+        <v>0.06200131784433972</v>
       </c>
       <c r="AC10">
-        <v>-0.06767348280879873</v>
+        <v>-0.06200131784433972</v>
       </c>
       <c r="AD10">
-        <v>667.3</v>
+        <v>4464.4</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>667.3</v>
+        <v>4464.4</v>
       </c>
       <c r="AG10">
-        <v>-304.6</v>
+        <v>3514.9</v>
       </c>
       <c r="AH10">
-        <v>0.4714235252560932</v>
+        <v>0.5654789801010779</v>
       </c>
       <c r="AI10">
-        <v>0.6940919492406906</v>
+        <v>0.675492881027674</v>
       </c>
       <c r="AJ10">
-        <v>-0.6866546438232642</v>
+        <v>0.5060759639473608</v>
       </c>
       <c r="AK10">
-        <v>29.00952380952381</v>
+        <v>0.6210509576648526</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1704,7 +1677,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vietnam Prosperity Joint Stock Commercial Bank (HOSE:VPB)</t>
+          <t>Tien Phong Commercial Joint Stock Bank (HOSE:TPB)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1713,10 +1686,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.325</v>
+        <v>0.391</v>
       </c>
       <c r="E11">
-        <v>0.376</v>
+        <v>0.436</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1731,19 +1704,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>353.2</v>
+        <v>154.9</v>
       </c>
       <c r="L11">
-        <v>0.3689543507782305</v>
+        <v>0.4880277252678009</v>
       </c>
       <c r="M11">
-        <v>-0</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="N11">
-        <v>-0</v>
+        <v>0.008582781456953643</v>
       </c>
       <c r="O11">
-        <v>-0</v>
+        <v>0.06275016139444803</v>
       </c>
       <c r="P11">
         <v>-0</v>
@@ -1755,58 +1728,61 @@
         <v>-0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>9.720000000000001</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>838.3</v>
+        <v>772.2</v>
       </c>
       <c r="V11">
-        <v>0.3998569043644168</v>
+        <v>0.6818543046357616</v>
       </c>
       <c r="W11">
-        <v>0.2634837747109288</v>
+        <v>0.3023618973257857</v>
       </c>
       <c r="X11">
-        <v>0.08990880064886488</v>
+        <v>0.08964497916203686</v>
       </c>
       <c r="Y11">
-        <v>0.1735749740620639</v>
+        <v>0.2127169181637489</v>
       </c>
       <c r="Z11">
-        <v>0.3404701781840168</v>
+        <v>0.5225551531116233</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.06843001500121215</v>
+        <v>0.06201030413870478</v>
       </c>
       <c r="AC11">
-        <v>-0.06843001500121215</v>
+        <v>-0.06201030413870478</v>
       </c>
       <c r="AD11">
-        <v>2649.9</v>
+        <v>1476.1</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>2649.9</v>
+        <v>1476.1</v>
       </c>
       <c r="AG11">
-        <v>1811.6</v>
+        <v>703.8999999999999</v>
       </c>
       <c r="AH11">
-        <v>0.5582968144277769</v>
+        <v>0.565859081499655</v>
       </c>
       <c r="AI11">
-        <v>0.603374470604308</v>
+        <v>0.6891223155929038</v>
       </c>
       <c r="AJ11">
-        <v>0.4635500626903098</v>
+        <v>0.3833042910041385</v>
       </c>
       <c r="AK11">
-        <v>0.5098072323061771</v>
+        <v>0.5138706380493503</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1823,7 +1799,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ho Chi Minh City Development Joint Stock Commercial Bank (HOSE:HDB)</t>
+          <t>Saigon Thuong Tin Commercial Joint Stock Bank (HOSE:STB)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1831,8 +1807,11 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="F12">
-        <v>0.124</v>
+      <c r="D12">
+        <v>0.112</v>
+      </c>
+      <c r="E12">
+        <v>0.0355</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1841,88 +1820,91 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>-0.006117651427977604</v>
+        <v>-0.0081943376016432</v>
       </c>
       <c r="J12">
-        <v>-0.004894743487390016</v>
+        <v>-0.00638236781283</v>
       </c>
       <c r="K12">
-        <v>140.4</v>
+        <v>102.5</v>
       </c>
       <c r="L12">
-        <v>0.3414396887159533</v>
+        <v>0.1870779339295492</v>
       </c>
       <c r="M12">
-        <v>-0</v>
+        <v>0.021</v>
       </c>
       <c r="N12">
-        <v>-0</v>
+        <v>1.602197299153124e-05</v>
       </c>
       <c r="O12">
-        <v>-0</v>
+        <v>0.0002048780487804878</v>
       </c>
       <c r="P12">
-        <v>-0</v>
+        <v>0.021</v>
       </c>
       <c r="Q12">
-        <v>-0</v>
+        <v>1.602197299153124e-05</v>
       </c>
       <c r="R12">
-        <v>-0</v>
+        <v>0.0002048780487804878</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
       <c r="U12">
-        <v>953.8</v>
+        <v>1212.5</v>
       </c>
       <c r="V12">
-        <v>0.8207555287840977</v>
+        <v>0.9250782024872205</v>
       </c>
       <c r="W12">
-        <v>0.2200626959247649</v>
+        <v>0.09083658277206663</v>
       </c>
       <c r="X12">
-        <v>0.08955363515579071</v>
+        <v>0.06429324082424891</v>
       </c>
       <c r="Y12">
-        <v>0.1305090607689742</v>
+        <v>0.02654334194781773</v>
       </c>
       <c r="Z12">
-        <v>0.2337800996996444</v>
+        <v>0.9804090195166667</v>
       </c>
       <c r="AA12">
-        <v>-0.001144293620486223</v>
+        <v>-0.006257330969571392</v>
       </c>
       <c r="AB12">
-        <v>0.06836757012227863</v>
+        <v>0.05648886907703867</v>
       </c>
       <c r="AC12">
-        <v>-0.06951186374276486</v>
+        <v>-0.06274620004661007</v>
       </c>
       <c r="AD12">
-        <v>1434.2</v>
+        <v>539.9</v>
       </c>
       <c r="AE12">
-        <v>19.97789133592195</v>
+        <v>112.4483878597015</v>
       </c>
       <c r="AF12">
-        <v>1454.177891335922</v>
+        <v>652.3483878597015</v>
       </c>
       <c r="AG12">
-        <v>500.377891335922</v>
+        <v>-560.1516121402985</v>
       </c>
       <c r="AH12">
-        <v>0.5558193554865041</v>
+        <v>0.3323139622507994</v>
       </c>
       <c r="AI12">
-        <v>0.6330555427923297</v>
+        <v>0.3490643714586197</v>
       </c>
       <c r="AJ12">
-        <v>0.3009831853666529</v>
+        <v>-0.7463231168048375</v>
       </c>
       <c r="AK12">
-        <v>0.3725051194271382</v>
+        <v>-0.8534364104510217</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1931,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>969.0540540540541</v>
+        <v>29.99444444444444</v>
       </c>
       <c r="AP12">
-        <v>338.0931698215689</v>
+        <v>-31.11953400779436</v>
       </c>
     </row>
     <row r="13">
@@ -1945,7 +1927,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Saigon - Hanoi Commercial Joint Stock Bank (HNX:SHB)</t>
+          <t>Military Commercial Joint Stock Bank (HOSE:MBB)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1954,10 +1936,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.202</v>
+        <v>0.271</v>
       </c>
       <c r="E13">
-        <v>0.207</v>
+        <v>0.262</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1966,91 +1948,88 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>-0.005731807439194013</v>
+        <v>-0.009836625670886097</v>
       </c>
       <c r="J13">
-        <v>-0.004578990174673898</v>
+        <v>-0.007943637075170758</v>
       </c>
       <c r="K13">
-        <v>99.3</v>
+        <v>353.8</v>
       </c>
       <c r="L13">
-        <v>0.3398357289527721</v>
+        <v>0.3918484882046738</v>
       </c>
       <c r="M13">
-        <v>0.007</v>
+        <v>-0</v>
       </c>
       <c r="N13">
-        <v>2.08147487362474e-05</v>
+        <v>-0</v>
       </c>
       <c r="O13">
-        <v>7.049345417925478e-05</v>
+        <v>-0</v>
       </c>
       <c r="P13">
-        <v>0.007</v>
+        <v>-0</v>
       </c>
       <c r="Q13">
-        <v>2.08147487362474e-05</v>
+        <v>-0</v>
       </c>
       <c r="R13">
-        <v>7.049345417925478e-05</v>
+        <v>-0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
       <c r="U13">
-        <v>1219.6</v>
+        <v>1067.9</v>
       </c>
       <c r="V13">
-        <v>3.626523936961046</v>
+        <v>0.3899152913684826</v>
       </c>
       <c r="W13">
-        <v>0.1442056346209701</v>
+        <v>0.229397652856124</v>
       </c>
       <c r="X13">
-        <v>0.2491415697677616</v>
+        <v>0.07794243080892119</v>
       </c>
       <c r="Y13">
-        <v>-0.1049359351467915</v>
+        <v>0.1514552220472028</v>
       </c>
       <c r="Z13">
-        <v>0.485483534997648</v>
+        <v>0.5232693921302015</v>
       </c>
       <c r="AA13">
-        <v>-0.002223024336720182</v>
+        <v>-0.004156662143627535</v>
       </c>
       <c r="AB13">
-        <v>0.07218854080544868</v>
+        <v>0.06003396935056983</v>
       </c>
       <c r="AC13">
-        <v>-0.07441156514216886</v>
+        <v>-0.06419063149419736</v>
       </c>
       <c r="AD13">
-        <v>2303.3</v>
+        <v>2492.7</v>
       </c>
       <c r="AE13">
-        <v>25.67417066866245</v>
+        <v>58.45744659121529</v>
       </c>
       <c r="AF13">
-        <v>2328.974170668663</v>
+        <v>2551.157446591215</v>
       </c>
       <c r="AG13">
-        <v>1109.374170668663</v>
+        <v>1483.257446591215</v>
       </c>
       <c r="AH13">
-        <v>0.8738216114120713</v>
+        <v>0.4822642662721512</v>
       </c>
       <c r="AI13">
-        <v>0.7483671798761331</v>
+        <v>0.5507255163283049</v>
       </c>
       <c r="AJ13">
-        <v>0.7673749681475929</v>
+        <v>0.3513115265138707</v>
       </c>
       <c r="AK13">
-        <v>0.5862030710182379</v>
+        <v>0.4161243243371283</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2059,10 +2038,10 @@
         <v>0</v>
       </c>
       <c r="AN13">
-        <v>665.6936416184972</v>
+        <v>887.0818505338077</v>
       </c>
       <c r="AP13">
-        <v>320.6283730256251</v>
+        <v>527.8496251214287</v>
       </c>
     </row>
     <row r="14">
@@ -2073,7 +2052,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Vietnam Export Import Commercial Joint Stock Bank (HOSE:EIB)</t>
+          <t>Saigon - Hanoi Commercial Joint Stock Bank (HNX:SHB)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2082,10 +2061,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.07629999999999999</v>
+        <v>0.213</v>
       </c>
       <c r="E14">
-        <v>0.0438</v>
+        <v>0.285</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2094,88 +2073,91 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.02451280986249054</v>
+        <v>-0.002924708970120048</v>
       </c>
       <c r="J14">
-        <v>0.0196318134118656</v>
+        <v>-0.002337353386024412</v>
       </c>
       <c r="K14">
-        <v>27.3</v>
+        <v>116.2</v>
       </c>
       <c r="L14">
-        <v>0.164161154539988</v>
+        <v>0.3486348634863486</v>
       </c>
       <c r="M14">
-        <v>-0</v>
+        <v>0.028</v>
       </c>
       <c r="N14">
-        <v>-0</v>
+        <v>2.182044887780548e-05</v>
       </c>
       <c r="O14">
-        <v>-0</v>
+        <v>0.0002409638554216867</v>
       </c>
       <c r="P14">
-        <v>-0</v>
+        <v>0.028</v>
       </c>
       <c r="Q14">
-        <v>-0</v>
+        <v>2.182044887780548e-05</v>
       </c>
       <c r="R14">
-        <v>-0</v>
+        <v>0.0002409638554216867</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
       <c r="U14">
-        <v>1137.8</v>
+        <v>1249.7</v>
       </c>
       <c r="V14">
-        <v>1.20913921360255</v>
+        <v>0.973893391521197</v>
       </c>
       <c r="W14">
-        <v>0.04190973288302119</v>
+        <v>0.1483846252075086</v>
       </c>
       <c r="X14">
-        <v>0.05664363603329407</v>
+        <v>0.1058671664671989</v>
       </c>
       <c r="Y14">
-        <v>-0.01473390315027288</v>
+        <v>0.0425174587403097</v>
       </c>
       <c r="Z14">
-        <v>-1.637900785422745</v>
+        <v>0.1766413629858651</v>
       </c>
       <c r="AA14">
-        <v>-0.03215496260656744</v>
+        <v>-0.0004128732878869791</v>
       </c>
       <c r="AB14">
-        <v>0.05746080807448972</v>
+        <v>0.06729439465968484</v>
       </c>
       <c r="AC14">
-        <v>-0.08961577068105717</v>
+        <v>-0.06770726794757181</v>
       </c>
       <c r="AD14">
-        <v>62.8</v>
+        <v>2314</v>
       </c>
       <c r="AE14">
-        <v>13.66759859933911</v>
+        <v>20.07402749870506</v>
       </c>
       <c r="AF14">
-        <v>76.46759859933911</v>
+        <v>2334.074027498705</v>
       </c>
       <c r="AG14">
-        <v>-1061.332401400661</v>
+        <v>1084.374027498705</v>
       </c>
       <c r="AH14">
-        <v>0.07515482429573732</v>
+        <v>0.6452577299245102</v>
       </c>
       <c r="AI14">
-        <v>0.1011251986212861</v>
+        <v>0.6938648737789583</v>
       </c>
       <c r="AJ14">
-        <v>8.820005161093984</v>
+        <v>0.4580106112434105</v>
       </c>
       <c r="AK14">
-        <v>2.781033260030796</v>
+        <v>0.5129067018109366</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -2184,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="AN14">
-        <v>9.221732745961821</v>
+        <v>761.1842105263158</v>
       </c>
       <c r="AP14">
-        <v>-155.8491044641205</v>
+        <v>356.7019827298372</v>
       </c>
     </row>
   </sheetData>
